--- a/data/trans_media/IQ09_M-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ09_M-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,12</t>
+          <t>0,18; 1,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 2,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,28</t>
+          <t>0,27; 1,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,44 +889,44 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 0,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,79</t>
+          <t>0,0; 4,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,73</t>
+          <t>0,0; 4,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,83</t>
+          <t>0,12; 0,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,88</t>
+          <t>0,49; 2,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,57</t>
+          <t>0,22; 2,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,76</t>
+          <t>0,25; 2,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,04</t>
+          <t>0,69; 5,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,05</t>
+          <t>0,51; 4,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,42</t>
+          <t>0,33; 1,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,06</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,61</t>
+          <t>0,32; 2,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,45</t>
+          <t>0,0; 0,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,71</t>
+          <t>0,17; 1,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,87</t>
+          <t>0,27; 1,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,38</t>
+          <t>0,82; 3,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,23</t>
+          <t>0,27; 2,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,27</t>
+          <t>0,36; 1,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,77</t>
+          <t>0,77; 8,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,56</t>
+          <t>1,21; 3,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,33</t>
+          <t>0,27; 4,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 6,04</t>
+          <t>0,22; 6,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,01</t>
+          <t>0,47; 3,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 8,02</t>
+          <t>0,66; 7,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,31</t>
+          <t>0,44; 2,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,12</t>
+          <t>0,89; 4,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,78</t>
+          <t>1,18; 2,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,94</t>
+          <t>0,92; 4,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,37</t>
+          <t>0,65; 4,49</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,64</t>
+          <t>0,0; 3,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,87</t>
+          <t>0,63; 3,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,31</t>
+          <t>0,85; 4,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,44</t>
+          <t>0,86; 4,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1309,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,05</t>
+          <t>0,79; 4,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,31</t>
+          <t>0,45; 4,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,21</t>
+          <t>0,11; 1,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,28</t>
+          <t>0,14; 2,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,15</t>
+          <t>0,96; 3,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,7</t>
+          <t>1,01; 3,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,27</t>
+          <t>0,7; 3,21</t>
         </is>
       </c>
     </row>
@@ -1424,37 +1424,37 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,35</t>
+          <t>0,45; 2,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,69</t>
+          <t>1,16; 2,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,84</t>
+          <t>0,98; 2,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,44</t>
+          <t>0,76; 2,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,01</t>
+          <t>0,26; 1,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,03</t>
+          <t>0,72; 2,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,7</t>
+          <t>0,72; 2,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,85</t>
+          <t>0,55; 1,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,1</t>
+          <t>1,09; 2,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,39</t>
+          <t>1,06; 2,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,84</t>
+          <t>0,76; 1,82</t>
         </is>
       </c>
     </row>
